--- a/W06/高雄空汙資訊3.xlsx
+++ b/W06/高雄空汙資訊3.xlsx
@@ -669,6 +669,12 @@
       <c r="B18" t="n">
         <v>85.58333333333333</v>
       </c>
+      <c r="C18" t="n">
+        <v>46.83333333333334</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.04083333333333334</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
